--- a/Backend/Model Metrics/metrics_rfc_CAP_vaso.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP_vaso.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8076208178438662</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7264150943396226</v>
+        <v>0.7358490566037735</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8154639175257732</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8369565217391305</v>
+        <v>0.3035019455252918</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.9658119658119658</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8612495550017799</v>
+        <v>0.8595555339428127</v>
       </c>
     </row>
   </sheetData>
